--- a/biology/Zoologie/Albertonectes/Albertonectes.xlsx
+++ b/biology/Zoologie/Albertonectes/Albertonectes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albertonectes vanderveldei
 Albertonectes (littéralement « nageur de l'Alberta ») est un genre fossile de grands plésiosaures de la famille des Elasmosauridae, ayant vécu durant l'étage Campanien moyen et supérieur du Crétacé supérieur, dans ce qui est actuellement le Canada. Une seule espèce est connue, Albertonectes vanderveldei, décrite en 2012 à partir de fossiles découvert dans la formation de Bearpaw, en Alberta. Il s'agit du plus long plésiosaure identifié à ce jour, aussi bien en termes de longueur du corps, qu'en terme de la longueur du cou. 
@@ -512,9 +524,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albertonectes est connu uniquement à partir de l'holotype catalogué TMP 2007.011.0001, un squelette postcrânien complet et bien préservé, conservé au Royal Tyrrell Museum of Paleontology à Drumheller, en Alberta. Les éléments comprennent les 132 vertèbres depuis le complexe de l'atlas et l'axis jusqu'à la pointe fusionnée des vertèbres caudales, des ceintures pectorales complètes et incomplètes, des membres antérieurs et postérieurs presque complets, des côtes désarticulées, un gastralia et au moins 97 gastrolithes associés. le spécimen TMP 2007.011.0001 a été découvert lors de l'exploitation minière d'une coquille d'ammonite de qualité gemme appelée Ammolite par Korite International Ltd. à environ 150 mètres au sud de la rivière St. Mary, près de Lethbridge, dans le Sud de l'Alberta. Le spécimen a été excavé dans un état presque complètement articulé à partir d'argile gris foncé dans un horizon concrétionnaire à environ 15 m au-dessus de la base de la formation de Bearpaw et à environ 2 m sous un lit de cendres connu par les mineurs sous le nom de « bentonite de 10 pouces ». Recueilli dans la partie inférieure de l'unité Muddy 1 de la section de la St. Mary River, juste en dessous de la plus faible occurrence locale connue de Baculites compressus dans la formation, le spécimen est datée qu'environ 73,5 millions d'années, datant ainsi au milieu de l'étage Campanien supérieur du Crétacé supérieur. La découverte d’Albertonectes marque un nouveau record de longueur de cou et de longueur totale du corps parmi les élasmosauridés connus, à 11,2 m en longueur du corps postcrânien (11,6 m avec le crâne) et un cou de 7 m[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albertonectes est connu uniquement à partir de l'holotype catalogué TMP 2007.011.0001, un squelette postcrânien complet et bien préservé, conservé au Royal Tyrrell Museum of Paleontology à Drumheller, en Alberta. Les éléments comprennent les 132 vertèbres depuis le complexe de l'atlas et l'axis jusqu'à la pointe fusionnée des vertèbres caudales, des ceintures pectorales complètes et incomplètes, des membres antérieurs et postérieurs presque complets, des côtes désarticulées, un gastralia et au moins 97 gastrolithes associés. le spécimen TMP 2007.011.0001 a été découvert lors de l'exploitation minière d'une coquille d'ammonite de qualité gemme appelée Ammolite par Korite International Ltd. à environ 150 mètres au sud de la rivière St. Mary, près de Lethbridge, dans le Sud de l'Alberta. Le spécimen a été excavé dans un état presque complètement articulé à partir d'argile gris foncé dans un horizon concrétionnaire à environ 15 m au-dessus de la base de la formation de Bearpaw et à environ 2 m sous un lit de cendres connu par les mineurs sous le nom de « bentonite de 10 pouces ». Recueilli dans la partie inférieure de l'unité Muddy 1 de la section de la St. Mary River, juste en dessous de la plus faible occurrence locale connue de Baculites compressus dans la formation, le spécimen est datée qu'environ 73,5 millions d'années, datant ainsi au milieu de l'étage Campanien supérieur du Crétacé supérieur. La découverte d’Albertonectes marque un nouveau record de longueur de cou et de longueur totale du corps parmi les élasmosauridés connus, à 11,2 m en longueur du corps postcrânien (11,6 m avec le crâne) et un cou de 7 m.
 Albertonectes a été décrit et nommé pour la première fois en 2012 par Tai Kubo (d), Mark T. Mitchell (d) et Donald M. Henderson (d) et son espèce type est Albertonectes vanderveldei.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique est dérivé de l'Alberta, en référence à la province canadienne où l'holotype a été trouvé, et du grec cient νηκτός / nêktós, signifiant « nageur », un suffixe commun pour les noms de genre des plésiosaures, le tout voulant littéralement dire « nageur de l'Alberta ». L'épithète spécifique est nommé en l'honneur de René Vandervelde, fondateur de Korite International, la société minière de pierres précieuses qui a découvert l'holotype[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique est dérivé de l'Alberta, en référence à la province canadienne où l'holotype a été trouvé, et du grec cient νηκτός / nêktós, signifiant « nageur », un suffixe commun pour les noms de genre des plésiosaures, le tout voulant littéralement dire « nageur de l'Alberta ». L'épithète spécifique est nommé en l'honneur de René Vandervelde, fondateur de Korite International, la société minière de pierres précieuses qui a découvert l'holotype.
 </t>
         </is>
       </c>
@@ -575,16 +591,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albertonectes possède le cou le plus long de tous les élasmosauridés jamais découverts, atteignant jusqu'à 7 m. L'holotype, sans le crâne, mesure 11,2 m du complexe de l'atlas et l'axis jusqu'au bout de la queue, ce qui suggère une longueur totale du corps de 11,6 m avec le crâne. Albertonectes est également unique parmi les autres élasmosauridés en ce qu'il possède 76 vertèbres cervicales, un nombre record parmi les élasmosauridés. Callawayasaurus ayant un nombre similaire de 56 n'a pas les faces articulaires en forme d'haltère présentes sur les vertèbres de Vegasaurus (en). Des traits supplémentaires rarement observés chez les autres élasmosauridés comprennent, entre autres traits[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albertonectes possède le cou le plus long de tous les élasmosauridés jamais découverts, atteignant jusqu'à 7 m. L'holotype, sans le crâne, mesure 11,2 m du complexe de l'atlas et l'axis jusqu'au bout de la queue, ce qui suggère une longueur totale du corps de 11,6 m avec le crâne. Albertonectes est également unique parmi les autres élasmosauridés en ce qu'il possède 76 vertèbres cervicales, un nombre record parmi les élasmosauridés. Callawayasaurus ayant un nombre similaire de 56 n'a pas les faces articulaires en forme d'haltère présentes sur les vertèbres de Vegasaurus (en). Des traits supplémentaires rarement observés chez les autres élasmosauridés comprennent, entre autres traits : 
 une projection frontale effilée sur le pubis qui s'étend sur le côté au-delà de l'acétabulum ;
 une crête longitudinale sur le côté de la plupart des vertèbres cervicales jusqu'à la 69e ;
 un arc claviculaire plus large que le bord antérieur adjacent de l'omoplate ;
 une absence de barre pectorale et pelvienne ;
 une pointe de la queue composée de sept vertèbres caudales fusionnées ;
 un humérus mince avec un rapport largeur/longueur de 0,56.
-Albertonectes est connu chez un individu mature, comme le suggèrent les épines neurales fusionnées et la plupart des côtes cervicales avec leur centra, et par la seule connexion partielle entre le trochanter et le tête du fémur, observée dans le spécimen TMP. 2007.011.0001. D'autres observations soutiennent également un âge adulte, par exemple des surfaces vertébrales rugueuses et ridées ainsi que des facettes et des articulations bien développées sur les os du poignet et de la cheville[1].
+Albertonectes est connu chez un individu mature, comme le suggèrent les épines neurales fusionnées et la plupart des côtes cervicales avec leur centra, et par la seule connexion partielle entre le trochanter et le tête du fémur, observée dans le spécimen TMP. 2007.011.0001. D'autres observations soutiennent également un âge adulte, par exemple des surfaces vertébrales rugueuses et ridées ainsi que des facettes et des articulations bien développées sur les os du poignet et de la cheville.
 </t>
         </is>
       </c>
@@ -613,9 +631,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kubo et al. (2012) ont testé la position phylogénétique d’Albertonectes en utilisant une version hautement modifiée de l'ensemble de données de Sato (2002), mais sa position n'était pas stable et de nombreux élasmosauridés formaient des polytomies assez grandes[1]. Cette analyse a été modifiée par José Patricio O’Gorman (d) et al. (2015), et le cladogramme ci-dessous suit leurs résultats, montrant uniquement les relations au sein des Elasmosauridae[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kubo et al. (2012) ont testé la position phylogénétique d’Albertonectes en utilisant une version hautement modifiée de l'ensemble de données de Sato (2002), mais sa position n'était pas stable et de nombreux élasmosauridés formaient des polytomies assez grandes. Cette analyse a été modifiée par José Patricio O’Gorman (d) et al. (2015), et le cladogramme ci-dessous suit leurs résultats, montrant uniquement les relations au sein des Elasmosauridae :
 </t>
         </is>
       </c>
